--- a/biology/Botanique/Ruellia_simplex/Ruellia_simplex.xlsx
+++ b/biology/Botanique/Ruellia_simplex/Ruellia_simplex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruellia simplex est une espèce de plantes herbacées à fleurs du genre Ruellia de la famille des Acanthaceae.
 C'est une espèce originaire de Cuba, Caraïbes, Amérique du Sud.
-Sa description en latin fut publiée pour la première fois en 1869 dans les "Anales de la Academia de Ciencias Médicas, Físicas y Naturales de la Habana",  Volume 6, page 321[1].
+Sa description en latin fut publiée pour la première fois en 1869 dans les "Anales de la Academia de Ciencias Médicas, Físicas y Naturales de la Habana",  Volume 6, page 321.
 Sa fleur est d'un bleu indigo très intense.  On en trouve aussi des variantes de couleur rose.
 Très robuste et facile à multiplier (couper la tige et planter), elle sert souvent à créer dans les rues des bordures devant les maisons.
 </t>
@@ -515,9 +527,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2]   7 juin 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   7 juin 2012
 Arrhostoxylum microphyllum Nees
 Cryphiacanthus angustifolius Nees
 Ruellia angustifolia (Nees) Lindau
